--- a/data/depot/Spending Drivers - Corrections - Recipients and Spending.xlsx
+++ b/data/depot/Spending Drivers - Corrections - Recipients and Spending.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +455,14 @@
       <color theme="1"/>
       <name val="Lato"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -675,13 +683,10 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -697,6 +702,18 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -724,9 +741,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,6 +752,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1048,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,31 +1083,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="34" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2"/>
@@ -1094,918 +1115,918 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>231.41</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>12002.83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>147.76</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.08</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>6982.42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>432.56</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>22014.55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>235.57</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>0.13</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>12536.67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>189.24</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>0.11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>8046.57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>359.7</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>0.15</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>25160.35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>239.54</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>0.1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>11579.04</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>190.55</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0.1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>9876.1200000000008</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>307.62</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>0.12</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>11920.04</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>378.97</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>0.09</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>16196.11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>210.05</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>0.12</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>11576.95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>235</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>0.05</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>4331.2700000000004</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>142.31</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0.08</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>6639.43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>191.07</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>0.09</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>7393.65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>160.18</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>0.11</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>10259.15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>146.63999999999999</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>0.08</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>5847.14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>169.99</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>0.11</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>12158.14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>166.54</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>0.2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>14884.85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>168.58</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>0.09</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>8036.51</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>288.67</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>0.12</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>12082.16</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>145.82</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>0.21</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>20858.63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>296.97000000000003</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>0.12</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>13344.52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>158.69</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>12851.06</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>227.18</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>0.08</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>8903.6299999999992</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>160.56</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>7012.22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>186.95</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>0.09</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>9476.39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>143.09</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>7888.18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>236.34</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>0.13</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>16448.97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>194.92</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>0.2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>16644.22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>255.85</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>0.21</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>23613.73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>138.13999999999999</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>0.2</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>20029.080000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>233.77</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>0.1</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>13549.14</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>288.82</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>0.21</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>20383.38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>294.37</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>0.26</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>26904.87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>194.1</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>0.18</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>13385.12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>199.26</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>0.2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>21462.01</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>157.51</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>5755.16</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>178.35</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>0.13</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>13058.72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>274.62</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>0.11</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>14318.93</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>258.68</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>0.1</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>10209.6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>189.32</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>0.06</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>7031.51</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>143.08000000000001</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>0.19</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>10887.13</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>197.35</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>0.12</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>12445.63</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>162.46</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>0.12</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>10241.43</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>210.09</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>0.1</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>8052.1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>181.42</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>0.24</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>23753.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>201.03</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>0.12</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>13719.13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>266.51</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>0.27</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>24302.31</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>226.12</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>0.12</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>14186.35</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>179.81</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>0.2</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>18844.57</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>269.95</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>0.15</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>17411.03</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>373.4</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <v>0.26</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>27395.9</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2013,6 +2034,7 @@
     <mergeCell ref="A55:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2020,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,245 +2056,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>266.51</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.27</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>24302.31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>373.4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>0.26</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>27395.9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>294.37</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>0.26</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>26904.87</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>181.42</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>0.24</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>23753.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>255.85</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>0.21</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>23613.73</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>145.82</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>0.21</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>20858.63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>288.82</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>0.21</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>20383.38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>199.26</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>0.2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>21462.01</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>138.13999999999999</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>0.2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>20029.080000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>179.81</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>0.2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>18844.57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
